--- a/Quick-Overview.xlsx
+++ b/Quick-Overview.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463E6742-4DB5-4B9F-8443-1903F581C779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66D3A1-6B2D-441D-80A6-62F3F5B02FC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM" sheetId="7" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="App" sheetId="17" r:id="rId8"/>
     <sheet name="SL" sheetId="6" r:id="rId9"/>
     <sheet name="Perf" sheetId="18" r:id="rId10"/>
-    <sheet name="Final" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId12"/>
-    <sheet name="AWS-Security" sheetId="15" r:id="rId13"/>
-    <sheet name="Exam-Prep" sheetId="13" r:id="rId14"/>
+    <sheet name="A1" sheetId="14" r:id="rId11"/>
+    <sheet name="A2" sheetId="16" r:id="rId12"/>
+    <sheet name="A3" sheetId="19" r:id="rId13"/>
+    <sheet name="AWS-Security" sheetId="15" r:id="rId14"/>
+    <sheet name="Exam-Prep" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="902">
   <si>
     <t>AWS Elastic Beanstalk is a cloud deployment and provisioning service that automates the process of getting applications set up on the Amazon Web Services (AWS) infrastructure. To use the service, developers just have to upload their applications.
 Key Features: AWS Elastic Beanstalk. The PaaS offering was developed by Amazon and helps developers deploy applications on AWS cloud. Elastic Beanstalk automatically handles every aspect in the cloud upload, including capacity provisioning, load balancing, scaling, and application health monitoring
@@ -2973,14 +2974,6 @@
 EBS Magnetic - Previous Gen</t>
   </si>
   <si>
-    <t>What is the underlying Hypervisor for EC2 ? (Choose 2)
-Nitro
-Hyper-V
-OVM
-Xen
-ESX</t>
-  </si>
-  <si>
     <t>Sorry!
 Until very recently AWS exclusively used Xen Hypervisors, Recently they started making use of Nitro Hypervisors. Further information: https://aws.amazon.com/ec2/faqs/</t>
   </si>
@@ -6498,14 +6491,6 @@
     <t>https://www.youtube.com/watch?v=5e4BUKeGZNk</t>
   </si>
   <si>
-    <t>AWS WAF is a web application firewall that lets you monitor the HTTP and HTTPS requests that are forwarded to an Amazon API Gateway API, Amazon CloudFront or an Application Load Balancer. AWS WAF also lets you control access to your content. Based on conditions that you specify, such as the IP addresses that requests originate from or the values of query strings, API Gateway, CloudFront or an Application Load Balancer responds to requests either with the requested content or with an HTTP 403 status code (Forbidden). You also can configure CloudFront to return a custom error page when a request is blocked.
--Protects from SQL Injection
-- Protects from Cross site scripting
-Conditions-CSS,GeoMatch, IPAddess Filtering, Size Constraint, SQL Injection, String &amp; Regex
-Rules
-Web ACLs</t>
-  </si>
-  <si>
     <t>Web Identity Provider</t>
   </si>
   <si>
@@ -7332,9 +7317,6 @@
 Best end user exp</t>
   </si>
   <si>
-    <t>Scripting Resoruce Privisioning</t>
-  </si>
-  <si>
     <t>Cloudformation
 Chef and Puppet(3rd party)</t>
   </si>
@@ -7366,12 +7348,6 @@
   </si>
   <si>
     <t>https://medium.com/@jeeyoungk/how-sharding-works-b4dec46b3f6</t>
-  </si>
-  <si>
-    <t>Storage is cheap but volume of data transferred over n/w can reduce performance hence compression
-Some AWS services automatically compress data
-Cloudfront can be configured to automatically compress files sent in response to cleint requests
-If large data dont use n/w instead use snowball to transfer data</t>
   </si>
   <si>
     <t>Put notes from Book into this</t>
@@ -7454,23 +7430,7 @@
     <t>AWS Secret Manager</t>
   </si>
   <si>
-    <t>AWS Serviceas can be accessed using IAM role.
-But IAM roles are not the best way to pass credentials(Secrets)
-Instead of hardcoding the username and passwords let Secret manager to thesupply of secret and rotation</t>
-  </si>
-  <si>
     <t>AWS CloudHSM</t>
-  </si>
-  <si>
-    <t>HSM - Hardware security Model
-Service Similar KMS
-Useful  in (1) Key stored in dedicated , 3rd party validated hardware security modules (2) FIPS( Federal information processing sts 140-2 compliance</t>
-  </si>
-  <si>
-    <t>Create, Track, Rotate and delete the keys that you will use to protect the data
-For regulatory purpose it is integrated with CloudTrail
-Key Creation and Management Happens thru the console, AWS CLI, or SDKs
-Key Administartion powers can be assigned to individual IAM users, Groups, or roles</t>
   </si>
   <si>
     <t xml:space="preserve"> https://aws.amazon.com/kms/
@@ -7696,12 +7656,529 @@
     <t xml:space="preserve">When using EC2 instances with Dedicated Hosting, which of the following modes are you able to transition between by stopping the instance and starting it again?
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the underlying Hypervisor for EC2 ? (Choose 2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nitro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hyper-V
+OVM
+Xen
+ESX</t>
+    </r>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>KMS comes under IAM
+IAM is global where as KMS is regional</t>
+  </si>
+  <si>
+    <t>KMS Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create 2 users ( keyUser, KeyManager) under a KeyManagerGroup , They create a encryption key using KMS service which is regional and this can be used by EC2 instances in same region. IAM users are global
+While creating the key we can assign who can use it and who has admin previlege to to ( for key rotation) </t>
+  </si>
+  <si>
+    <t>Scripting Resource Privisioning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Storage is cheap but volume of data transferred over n/w can reduce performance hence compression
+Some AWS services automatically compress data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloudfront can be configured to automatically compress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files sent in response to cleint requests
+If large data dont use n/w instead use snowball to transfer data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AWS WAF is a web application firewall that lets you monitor the HTTP and HTTPS requests that are forwarded to an Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API Gateway API, Amazon CloudFront or an Application Load Balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. AWS WAF also lets you control access to your content. Based on conditions that you specify, such as the IP addresses that requests originate from or the values of query strings, API Gateway, CloudFront or an Application Load Balancer responds to requests either with the requested content or with an HTTP 403 status code (Forbidden). You also can configure CloudFront to return a custom error page when a request is blocked.
+-Protects from SQL Injection
+- Protects from Cross site scripting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-CSS,GeoMatch, IPAddess Filtering, Size Constraint, SQL Injection, String &amp; Regex
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web ACLs</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS Services can be accessed using IAM role.
+But IAM roles are not the best way to pass credentials(Secrets)
+Instead of hardcoding the username and passwords let Secret manager do the supply of secret and rotation of key</t>
+  </si>
+  <si>
+    <t>HSM - Hardware security Model
+Service Similar to KMS
+Useful  in (1) Key stored in dedicated , 3rd party validated hardware security modules (2) FIPS( Federal information processing sts 140-2 compliance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create, Track, Rotate and delete the keys that you will use to protect the data
+KMS is regional and not global( IAM roles are global)
+For regulatory purpose it is integrated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CloudTrail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Key Creation and Management Happens thru the console, AWS CLI, or SDKs
+Key Administartion powers can be assigned to individual IAM users, Groups, or roles</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS KMS benefits</t>
+  </si>
+  <si>
+    <t>Fully managed
+Centralized key management
+Manage encryption for AWS services
+Encrypt data in your applications
+Encrypt data in your applications
+Low cost
+Secure
+Compliance</t>
+  </si>
+  <si>
+    <t>AWS Key Management Service (KMS) makes it easy for you to create and manage keys and control the use of encryption across a wide range of AWS services(all data services) and in your applications. AWS KMS is a secure and resilient service that uses hardware security modules that have been validated under FIPS 140-2, or are in the process of being validated, to protect your keys. AWS KMS is integrated with AWS CloudTrail to provide you with logs of all key usage to help meet your regulatory and compliance needs.</t>
+  </si>
+  <si>
+    <t>Envelope Key or Customer master key(CMK)</t>
+  </si>
+  <si>
+    <t>master key encrypts data key(envelope key) which is used encrypt actual data</t>
+  </si>
+  <si>
+    <t>S3 URL Style</t>
+  </si>
+  <si>
+    <t>Amazon S3 supports both virtual-hosted–style and path-style URLs to access a bucket.
+In a virtual-hosted–style URL, the bucket name is part of the domain name in the URL. For example:  
+http://bucket.s3-aws-region.amazonaws.com
+http://bucket.s3.amazonaws.com
+Note
+Buckets created in Regions launched after March 20, 2019 are not reachable via the https://bucket.s3.amazonaws.com naming scheme.
+In a virtual-hosted–style URL, you can use either of these endpoints. If you make a request to the http://bucket.s3.amazonaws.com endpoint, the DNS has sufficient information to route your request directly to the Region where your bucket resides.
+For more information, see Virtual Hosting of Buckets.
+In a path-style URL, the bucket name is not part of the domain. For example:
+Region-specific endpoint, http://s3-aws-region.amazonaws.com/bucket
+US East (N. Virginia) Region endpoint, http://s3.amazonaws.com/bucket
+In a path-style URL, the endpoint you use must match the Region in which the bucket resides. For example, if your bucket is in the South America (São Paulo) Region, you must use the http://s3.sa-east-1.amazonaws.com/bucket endpoint. If your bucket is in the US East (N. Virginia) Region, you must use the http://s3.amazonaws.com/bucket endpoint.</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/UsingBucket.html</t>
+  </si>
+  <si>
+    <t>You are reviewing Change Control requests, and you note that there is a change designed to reduce costs by updating the "WaitTimeSeconds" attribute. What does this mean?</t>
+  </si>
+  <si>
+    <t>Change Control requests</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/aws/aws-managed-services-infrastructure-operations-management-for-the-enterprise/</t>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/premiumsupport/technology/trusted-advisor/best-practice-checklist/#security</t>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor is your customized cloud expert! It helps you to observe best practices for the use of AWS by inspecting your AWS environment with an eye toward saving money, improving system performance and reliability, and closing security gaps.
+Go thru the details in the link</t>
+  </si>
+  <si>
+    <t>AWS Compliance</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/whitepapers/https://aws.amazon.com/compliance/pci-dss-level-1-faqs/https://aws.amazon.com/compliance/soc-faqs/</t>
+  </si>
+  <si>
+    <t>Best Practices</t>
+  </si>
+  <si>
+    <t>https://media.amazonwebservices.com/AWS_Cloud_Best_Practices.pdf
+Read about Elasticity and other cloud best practices</t>
+  </si>
+  <si>
+    <t>Your AWS environment contains several on-demand EC2 instances dedicated to a project that has just been cancelled. Your supervisor does not want to incur charges for these on-demand instances, but also does not want to lose the data just yet because there is a chance the project may be revived in the next few days. What should you do to minimize charges for these instances in the meantime?
+Terminate the instances.
+Create AMIs from the instances and put them on the AWS Marketplace in hope of recovering some of the cost.
+Contact AWS Support and put the instances on Courtesy Hold.
+Stop the instances.</t>
+  </si>
+  <si>
+    <t>4. You have a distributed application that periodically processes large volumes of data across multiple Amazon EC2 Instances. The application is designed to recover gracefully from Amazon EC2 instance failures. You are required to accomplish this task in the most cost effective way.
+Which of the following will meet your requirements?
+Spot Instances
+Reserved instances
+Dedicated instances
+On-Demand instances
+Answer: A
+Explanation: Since the work we are addressing here is not continuous, a reserved instance shall be idle at times, same goes with On Demand instances. Also it does not make sense to launch an On Demand instance whenever work comes up, since it is expensive. Hence Spot Instances will be the right fit because of their low rates and no long term commitments.
+5. How is stopping and terminating an instance different from each other?
+Starting, stopping and terminating are the three states in an EC2 instance, let’s discuss them in detail:
+Stopping and Starting an instance: When an instance is stopped, the instance performs a normal shutdown and then transitions to a stopped state. All of its Amazon EBS volumes remain attached, and you can start the instance again at a later time. You are not charged for additional instance hours while the instance is in a stopped state.
+Terminating an instance: When an instance is terminated, the instance performs a normal shutdown, then the attached Amazon EBS volumes are deleted unless the volume’s deleteOnTermination attribute is set to false. The instance itself is also deleted, and you can’t start the instance again at a later time.</t>
+  </si>
+  <si>
+    <t>ou receive a ProvisionedThroughputExceededException error. However, the DynamoDB metrics show that your table or Index has not been operating at maximum provisioned throughput. What could the error be caused by?
+It is only a warning. DynamoDB's Burst Capacity will handle the extra traffic.
+It is a transitory error. AWS will adjust the table to accommodate it and reprocess the transaction.
+The throughput is not balanced across your partitions. One partition is being subjected to a disproportionate amount of the traffic and is, therefore, exceeding limits.
+The error is caused by excess traffic generated by your Local Secondary Indexes. You should provision Units specifically to the Local Secondary Indexes.
+Good Work!
+The consumption of provisioned throughput units, and I/O bottlenecks are not a simple average over the table. Consumption is measured in terms of load on each individual partition, as well as load on each Local &amp; Global Secondary Index. Further information: https://aws.amazon.com/blogs/aws/optimizing-provisioned-throughput-in-amazon-dynamodb/</t>
+  </si>
+  <si>
+    <t>DYNAMO DB IN DEPTH REQUREID ( May be watch Developer cert videos , read the book again for indexs and partitions)</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/API/API_PutObject.html</t>
+  </si>
+  <si>
+    <t>S3 PUT Request header</t>
+  </si>
+  <si>
+    <t>How do I create a secure connection between my office network and Amazon Virtual Private Cloud?</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/premiumsupport/knowledge-center/create-connection-vpc/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/vpn/latest/s2svpn/VPC_VPN.html</t>
+  </si>
+  <si>
+    <t>What is ASN in AWS?
+Autonomous System numbers are used to identify networks that present a clearly defined external routing policy to the Internet. AWS Direct Connect requires an ASN to create a public or private virtual interface. You may use a public ASN which you own, or you can pick any private ASN number between 64512 to 65535 range.</t>
+  </si>
+  <si>
+    <t>What is ASN in AWS?</t>
+  </si>
+  <si>
+    <t>cost efficiency quesitons for choosing EC2 instance</t>
+  </si>
+  <si>
+    <t>Between spot and ondemand , primary and secondary wih ASG and DyanmoDB with/without MultiAZ</t>
+  </si>
+  <si>
+    <t>VPC Scenarios</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/vpc/latest/userguide/VPC_Scenarios.html</t>
+  </si>
+  <si>
+    <t>The configuration for this scenario includes a virtual private cloud (VPC) with a public subnet and a private subnet, and a virtual private gateway to enable communication with your own network over an IPsec VPN tunnel</t>
+  </si>
+  <si>
+    <t>CNAME Records Vs 	Alias Records</t>
+  </si>
+  <si>
+    <t>Very Important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have created a VPC that contains two EC2 instances in different availability zones. Both are running web servers, hosting the same content. These web servers will be accessible via the internet. Which of the following DNS configurations could you consider? (Choose 2)
+Set up an Application Load Balancer and place your instances behind this ELB. Configure a Route 53 CNAME to use the public DNS address of the Application Load Balancer.
+Set up an Application Load Balancer and place your instances behind this ELB. Configure a Route 53 Alias record to point to the resource of the Application Load Balancer.
+Assign each EC2 instance with an Elastic IP Address. Configure a Route 53 "A" multi-value record with both EIP’s and health checks.
+Configure a NAT instance within your VPC. Create a route via the NAT instance and associate it with all private subnets within your VPC. Create a Route 53 "A" record to point to the public IP address of the NAT.
+Good Work!
+Using an ALB will provide a very fault tolerant setup. When creating a record in Route 53 to other AWS resources, including ALB's, you should use Alias records where available. The alternate option of attaching Elastic IPs directly to the instances with an "A" record accomplishes similar results, but doesn't incur the cost of an ALB Further information: https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/routing-policy.html#routing-policy-failover
+</t>
+  </si>
+  <si>
+    <t>Go Deep into Hosted zone, Apex and CNAME and ALIAS records</t>
+  </si>
+  <si>
+    <t>https://acloud.guru/forums/aws-certified-solutions-architect-associate/discussion/-KQvfAEAGOldeI-Lbo0e/cname-and-alias-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By default, all EC2 instances are monitored by CloudWatch. Using the default settings, how many minutes elapse between when metrics are sent to CloudWatch? Using the detailed option, how many minutes would elapse between metrics being sent to CloudWatch?
+10 minutes, 5 minutes
+3 Minutes, 1 minute
+5 minutes, 1 minute
+1 Minute, 30 seconds
+Good Work!
+Using the default settings metrics are sent every 5 minutes to CloudWatch. Using the detailed settings, metrics are then sent every 1 minute. Further information: https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-cloudwatch.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon ElastiCache can fulfill a number of roles. Choose the operations from the following list which can be implemented using ElastiCache for Redis. (Choose 3)
+Pub/Sub
+In-Memory Data Store
+Relational Data Store
+Sorted Sets
+Good Work!
+Amazon ElastiCache offers a fully managed Memcached and Redis service. Although the name only suggests caching functionality, the Redis service in particular can offer a number of operations such as Pub/Sub, Sorted Sets and an In-Memory Data Store. However, ElastiCache is only a key-value store and cannot therefore store relational data. Further information: https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html
+</t>
+  </si>
+  <si>
+    <t>SPOT INSTANCE LIFE CYCLE</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/aws/new-ec2-spot-instance-termination-notices/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESTION 27 OF 61
+The risk with spot instances is that you are not guaranteed use of the resource for as long as you might want. Which of the following are scenarios under which AWS might execute a forced shutdown? (Choose 4)
+AWS sends a notification of termination and you receive it 120 seconds before the intended forced shutdown.
+AWS sends a notification of termination but you do not receive it within the 120 seconds and the instance is shutdown.
+AWS sends a notification of termination and you receive it 120 seconds before the forced shutdown, and you delay it by sending a 'Delay300' instruction before the forced shutdown takes effect.
+AWS sends a notification of termination and you receive it 120 seconds before the intended forced shutdown, but AWS do not action the shutdown.
+AWS sends a notification of termination and you receive it 120 seconds before the forced shutdown, but you block the shutdown because you used 'Termination Protection' when you initialized the instance.
+AWS sends a notification of termination and you receive it 120 seconds before the forced shutdown, but the normal lease expired before the forced shutdown.
+Sorry!
+notification of spot termination Further information: https://aws.amazon.com/blogs/aws/new-ec2-spot-instance-termination-notices/http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/terminating-instances.html#Using_ChangingDisableAPITermination
+</t>
+  </si>
+  <si>
+    <t>Using a Curl or Get Command to get the latest meta-data from http://169.254.169.254/latest/meta-data/</t>
+  </si>
+  <si>
+    <t>Using a Curl or Get Command to get the latest user-data from http://169.254.169.254/latest/user-data/</t>
+  </si>
+  <si>
+    <t>You are reviewing Change Control requests, and you note that there is a change designed to reduce wasted CPU cycles by increasing the value of "VisibilityTimeout" attribute. What does this mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor timing of SQS processes can significantly impact the cost effectiveness of the solution. Further information: http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.htmlhttp://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/AboutVT.htmlhttp://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.htmlhttp://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_ChangeMessageVisibility.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have been engaged by a company to design and lead the migration to an AWS environment. An argument has broken out about how to meet future Backup &amp; Archive requirements and how to transition. The Security Manager and CTO are concerned about backup continuity and the ability to continue to access old archives. The Senior engineer is adamant that there is no way to retain the old backup solution in the AWS environment, and that they will lose access to all the current archives. What information can you share that will satisfy both parties in a cost-effective manner? (Choose 2)
+Sorry!
+Any migration project needs to consider how to manage legacy data and data formats. This includes backup and archives. A 3rd party archive service is viable, but would be an ongoing expense. Storage Gateway can be used to efficiently move data into AWS. Old tapes could either be restored to the Storage Gateway volume, or migrated to Virtual tapes inside AWS using Tape Gateway. Further information: https://aws.amazon.com/importexport/disk/https://docs.aws.amazon.com/storagegateway/latest/userguide/WhatIsStorageGateway.htmlhttp://www.ironmountain.com/Services/Data-Management/Archive/Data-Restoration-and-Migration/Data-Restoration.aspxhttp://www.veritas.com/community/forums/how-duplicate-netbackup-media-tape-backup-another-media-tape
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch the tenancy of your VPC from Dedicated to Default instantly
+Posted On: Oct 16, 2017
+Amazon EC2 now allows customers to switch the tenancy of existing VPCs from dedicated to default instantly, by using the AWS CLI/SDK. Dedicated tenancy ensures all EC2 instances that are launched in a VPC run on hardware that's dedicated to a single customer. </t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/about-aws/whats-new/2017/10/switch-the-tenancy-of-your-vpc-from-dedicated-to-default-instantly/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html</t>
+  </si>
+  <si>
+    <t>Amazon SQS Delay Queues
+Delay queues let you postpone the delivery of new messages to a queue for a number of seconds. If you create a delay queue, any messages that you send to the queue remain invisible to consumers for the duration of the delay period. The default (minimum) delay for a queue is 0 seconds. The maximum is 15 minutes. For information about configuring delay queues using the AWS Management Console or the AWS SDK for Java (and the SetQueueAttributes action), see Configuring an Amazon SQS Delay Queue.
+Note
+For standard queues, the per-queue delay setting is not retroactive—changing the setting doesn't affect the delay of messages already in the queue.
+For FIFO queues, the per-queue delay setting is retroactive—changing the setting affects the delay of messages already in the queue.
+Delay queues are similar to visibility timeouts because both features make messages unavailable to consumers for a specific period of time. The difference between the two is that, for delay queues, a message is hidden when it is first added to queue, whereas for visibility timeouts a message is hidden only after it is consumed from the queue. The following diagram illustrates the relationship between delay queues and visibility timeouts.</t>
+  </si>
+  <si>
+    <t>S3, SQS &amp; DynamoDB are already built in a fault tolerant fashion, you do not need to provision these services across multiple availability zones. Therefore the correct answers are RDS and EC2 Further information:</t>
+  </si>
+  <si>
+    <t>Aws SQS short and long polling</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-short-and-long-polling.html</t>
+  </si>
+  <si>
+    <t>WaitTimeSeconds vs VisibilityTimeout  vs  DelaySeconds  -&gt; SQS</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_ReceiveMessage.html</t>
+  </si>
+  <si>
+    <t>When the wait time for the ReceiveMessage API action is greater than 0, long polling is in effect. Long polling helps reduce the cost of using Amazon SQS by eliminating the number of empty responses</t>
+  </si>
+  <si>
+    <t>Shared responsibility Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the AWS platform is PCI DSS Level 1 Certified, I can immediately deploy a website to it that can take and store credit card details without getting a delta accreditation from a QSA.
+False
+True
+Sorry!
+AWS holds compliance certification for the services that 'AWS' runs. As a customer you are still responsible for the compliance certification of the code and process and configurations that 'you' manage. However you can avoid the cost and complication of proving that the underlying services are compliant. Further information: https://aws.amazon.com/compliance/https://aws.amazon.com/compliance/pci-dss-level-1-faqs/
+</t>
+  </si>
+  <si>
+    <t>Route 53 has a security feature that prevents internal DNS from being read by external sources. The work around is to create a EC2 hosted DNS instance that does zone transfers from the internal DNS, and allows itself to be queried by external servers. Further information: https://forums.aws.amazon.com/message.jspa?messageID=637102http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-dns.htmlhttp://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_DHCP_Options.htmlhttps://d1.awsstatic.com/whitepapers/hybrid-cloud-dns-options-for-vpc.pdf</t>
+  </si>
+  <si>
+    <t>The throughput is not balanced across your partitions. One partition is being subjected to a disproportionate amount of the traffic and is, therefore, exceeding limits.</t>
+  </si>
+  <si>
+    <t>QUESTION 37 OF 61
+With which AWS orchestration service can you implement Chef recipes?
+Lambda
+CloudFormation
+Opsworks
+Elastic Beanstalk
+Sorry!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESTION 38 OF 61
+Which of the following is not a feature of AWS Organizations?
+Hierarchical based control over groups of IAM users and roles, within multiple Accounts
+Grouping all of your AWS accounts into Organisational Units (OUs) as part of a hierarchy
+AWS accounts which are members of an Organization can have the benefit of Consolidated Billing
+Granular configuration of Security Groups within a VPC
+Good Work!
+AWS Organizations is an account management service which allows you manage multiple accounts centrally. Further information: https://docs.aws.amazon.com/organizations/latest/userguide/orgs_introduction.html
+</t>
+  </si>
+  <si>
+    <t>What are the four levels of AWS Premium Support?
+Basic, Developer, Business, Enterprise</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/aws/trusted-advisor-console-basic/</t>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor is your customized cloud expert! It helps you to observe best practices for the use of AWS by inspecting your AWS environment with an eye toward saving money, improving system performance and reliability, and closing security gaps. 
+Four Best Practices at no Charge
+Service Limits Check 
+Security Groups – Specific Ports Unrestricted Check 
+IAM Use Check 
+MFA on Root Account Check –</t>
+  </si>
+  <si>
+    <t>on-demand core nodes and four on-demand task nodes ??</t>
+  </si>
+  <si>
+    <t>Amazon Elastic MapReduce (EMR) is an Amazon Web Services (AWS) tool for big data processing and analysis. ... Amazon EMR processes big data across a Hadoop cluster of virtual servers on Amazon Elastic Compute Cloud (EC2) and Amazon Simple Storage Service (S3).</t>
+  </si>
+  <si>
+    <t>The RTO, or recovery time objective, is the maximum length of time after an outage that your company is willing to wait for the recovery process to finish. On the other hand, the RPO, or recovery point objective, is the maximum amount of data loss your company is willing to accept as measured in time.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7783,6 +8260,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7901,7 +8386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7992,6 +8477,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8275,10 +8763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A52B4B-2253-45FC-8FB5-045B58EB4CB7}">
-  <dimension ref="B5:F54"/>
+  <dimension ref="B5:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8294,39 +8782,39 @@
   <sheetData>
     <row r="5" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="E9" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -8335,136 +8823,136 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E12" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E13" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E14" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E15" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E16" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E17" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E18" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E19" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="304.5" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E22" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E23" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="232" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -8477,121 +8965,163 @@
     </row>
     <row r="38" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C38" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E39" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C41" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C42" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C43" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E44" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C48" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C50" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C51" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="116" x14ac:dyDescent="0.35">
       <c r="C52" s="1" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="159.5" x14ac:dyDescent="0.35">
+        <v>834</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C54" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C55" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C56" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C57" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8602,8 +9132,8 @@
     <hyperlink ref="F38" r:id="rId3" xr:uid="{C8A3C97B-DC9D-4FC9-9099-F91C2CA74704}"/>
     <hyperlink ref="F41" r:id="rId4" xr:uid="{C56B3821-554D-4138-B374-3F7C486054F7}"/>
     <hyperlink ref="E44" r:id="rId5" xr:uid="{0044057A-7C91-484C-B95E-34F4D740BB73}"/>
-    <hyperlink ref="F50" r:id="rId6" display="https://aws.amazon.com/kms/faqs/" xr:uid="{AE36B4B5-9B21-4758-8C4E-44DD2249AC57}"/>
-    <hyperlink ref="E53" r:id="rId7" xr:uid="{E145C112-0F6E-4E1C-AB20-3CABD25722B0}"/>
+    <hyperlink ref="F51" r:id="rId6" display="https://aws.amazon.com/kms/faqs/" xr:uid="{AE36B4B5-9B21-4758-8C4E-44DD2249AC57}"/>
+    <hyperlink ref="E60" r:id="rId7" xr:uid="{E145C112-0F6E-4E1C-AB20-3CABD25722B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -8614,8 +9144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4489CF85-8085-4574-A5C1-327E6AD44F96}">
   <dimension ref="B4:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8629,112 +9159,112 @@
   <sheetData>
     <row r="4" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -8750,8 +9280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B675DA8E-0188-479F-BF8C-BF18C6958E54}">
   <dimension ref="E5:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="B12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8771,217 +9301,217 @@
   <sheetData>
     <row r="5" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E5" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E6" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E7" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="232" x14ac:dyDescent="0.35">
       <c r="E9" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>621</v>
+        <v>827</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="116" x14ac:dyDescent="0.35">
       <c r="E10" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="58" x14ac:dyDescent="0.35">
       <c r="E12" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="5:7" ht="58" x14ac:dyDescent="0.35">
       <c r="E13" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="5:7" ht="29" x14ac:dyDescent="0.35">
       <c r="E14" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="5:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E15" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="5:7" ht="29" x14ac:dyDescent="0.35">
       <c r="E16" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="5:16" ht="145" x14ac:dyDescent="0.35">
       <c r="E17" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="18" spans="5:16" ht="29" x14ac:dyDescent="0.35">
       <c r="E18" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="5:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F19" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.35">
       <c r="F20" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="145" x14ac:dyDescent="0.35">
       <c r="E21" s="1" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="174" x14ac:dyDescent="0.35">
       <c r="E22" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="5:16" ht="174" x14ac:dyDescent="0.35">
       <c r="E23" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="24" spans="5:16" ht="188.5" x14ac:dyDescent="0.35">
       <c r="E24" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="5:16" ht="232" x14ac:dyDescent="0.35">
       <c r="E25" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="26" spans="5:16" ht="232" x14ac:dyDescent="0.35">
       <c r="F26" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="5:16" ht="188.5" x14ac:dyDescent="0.35">
       <c r="E27" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="5:16" ht="174" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="29" spans="5:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F29" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="24"/>
@@ -8989,13 +9519,13 @@
     </row>
     <row r="30" spans="5:16" ht="246.5" x14ac:dyDescent="0.35">
       <c r="E30" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27"/>
@@ -9003,7 +9533,7 @@
     </row>
     <row r="31" spans="5:16" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F31" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="27"/>
@@ -9054,7 +9584,7 @@
   <dimension ref="D3:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9067,188 +9597,188 @@
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="116" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="58" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="29" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="58" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="4:4" ht="29" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="4:4" ht="348" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="4:4" ht="174" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="4:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="4:4" ht="116" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="4:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" spans="4:5" ht="145" x14ac:dyDescent="0.35">
       <c r="D36" s="1" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="37" spans="4:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D37" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D38" s="12" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -9262,6 +9792,322 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90564CF7-B8C7-40D2-B8B7-3275E730EC84}">
+  <dimension ref="C5:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D58:D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="23.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="130.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="203" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="319" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E18" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="174" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="203" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="261" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D33" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D37" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="D39" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" ht="261" x14ac:dyDescent="0.35">
+      <c r="D41" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D42" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="D43" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D45" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D47" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{A7A6A63E-80B3-4909-B131-AC29ABD85C51}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{9E3ACC14-45CE-4D83-B277-E4A17235A254}"/>
+    <hyperlink ref="E7" r:id="rId3" location="security" xr:uid="{4D796DB4-DAA7-476D-B427-EF30919D47D3}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{6790C5AE-AA4F-46F5-A138-C55FC7AFF9D5}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{02B6FCAB-C647-448A-934A-341A8EA69D46}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{07D92093-C8C3-42DB-A61E-2A33C2CCF5B5}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{AA47096D-4AA9-4D71-979C-A6ED09EA5442}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{2123604F-5F0E-45EF-B894-DE68DF4E0310}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{D94E1289-ABDC-47AE-A2B5-48933B3D2FD7}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{06E46FA4-D27E-4005-A869-2CA7172291C2}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{B2D3CC4E-9C5C-49D8-B3AC-05D5B3FE57AF}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{44DABD56-4083-4096-8F34-72CA4D67B3C7}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{57FE35E1-E7B5-472D-86C7-63C52437C859}"/>
+    <hyperlink ref="E30" r:id="rId14" xr:uid="{5EC782F0-B9EB-4478-9345-64A1BF84AE25}"/>
+    <hyperlink ref="E32" r:id="rId15" xr:uid="{2D658CD7-90C4-4DE1-BDE7-D3A346FC0B67}"/>
+    <hyperlink ref="E33" r:id="rId16" xr:uid="{8448EE47-BD80-4A39-9BAC-54E1CF18A717}"/>
+    <hyperlink ref="E43" r:id="rId17" xr:uid="{4F5CE0BC-E711-4DB6-A7BD-84B24EA58EBE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA09BD-7117-43EE-AEB1-0AA7D60416DA}">
   <dimension ref="D3:D5"/>
   <sheetViews>
@@ -9276,17 +10122,17 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D3" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D4" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D5" s="21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -9299,12 +10145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D78B22-3A13-40FE-8680-BC5AFD849632}">
   <dimension ref="D2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9314,37 +10160,37 @@
   <sheetData>
     <row r="2" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D2" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D4" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="4:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -9359,10 +10205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B268EC2-3A72-4214-943D-BD1612B07D3E}">
-  <dimension ref="A2:E95"/>
+  <dimension ref="A2:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9425,7 +10271,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>46</v>
@@ -9436,10 +10282,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -9453,7 +10299,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -9474,7 +10320,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -9482,7 +10328,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="232" x14ac:dyDescent="0.35">
@@ -9490,10 +10336,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -9504,7 +10350,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
@@ -9515,7 +10361,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>74</v>
@@ -9552,7 +10398,7 @@
         <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -9568,7 +10414,7 @@
         <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -9591,7 +10437,7 @@
         <v>304</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>303</v>
@@ -9641,7 +10487,7 @@
         <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="145" x14ac:dyDescent="0.35">
@@ -9649,7 +10495,7 @@
         <v>316</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="116" x14ac:dyDescent="0.35">
@@ -9665,7 +10511,7 @@
         <v>319</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>321</v>
@@ -9795,147 +10641,147 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
@@ -9943,10 +10789,10 @@
         <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -9954,7 +10800,7 @@
         <v>59</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>291</v>
@@ -9965,47 +10811,47 @@
         <v>60</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="203" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="203" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -10069,12 +10915,23 @@
     <row r="95" spans="2:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B95" s="10"/>
       <c r="C95" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>409</v>
       </c>
       <c r="E95" s="4"/>
+    </row>
+    <row r="97" spans="2:4" ht="377" x14ac:dyDescent="0.35">
+      <c r="B97" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>838</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10094,18 +10951,19 @@
     <hyperlink ref="D76" r:id="rId14" xr:uid="{EE5654D6-16F6-4D5E-83FE-F4001048D441}"/>
     <hyperlink ref="D75" r:id="rId15" xr:uid="{D29B99A9-A0E3-4E1E-9AF8-576F251C5C76}"/>
     <hyperlink ref="D93" r:id="rId16" display="https://aws.amazon.com/storagegateway/" xr:uid="{94DE55B8-8486-418B-B1F1-24887F6A5B07}"/>
+    <hyperlink ref="D97" r:id="rId17" xr:uid="{A5798B62-79C3-4036-A746-E642BF478AD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D1E7E2-39DC-4308-9C8E-7B548F1BFA6A}">
-  <dimension ref="A2:F103"/>
+  <dimension ref="A2:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10121,7 +10979,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="10"/>
@@ -10133,7 +10991,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
@@ -10163,7 +11021,7 @@
         <v>201</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>202</v>
@@ -10191,7 +11049,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>81</v>
@@ -10225,7 +11083,7 @@
         <v>374</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>375</v>
@@ -10251,7 +11109,7 @@
         <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>105</v>
@@ -10259,23 +11117,23 @@
     </row>
     <row r="16" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="10"/>
@@ -10283,61 +11141,61 @@
     </row>
     <row r="19" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="10"/>
@@ -10345,17 +11203,17 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="10"/>
@@ -10363,10 +11221,10 @@
     </row>
     <row r="30" spans="1:5" ht="319" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
@@ -10374,23 +11232,23 @@
         <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="C32" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="116" x14ac:dyDescent="0.35">
@@ -10401,42 +11259,42 @@
         <v>420</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -10456,13 +11314,13 @@
         <v>419</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="10"/>
@@ -10471,7 +11329,7 @@
     </row>
     <row r="42" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="D42" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -10483,7 +11341,7 @@
         <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -10491,42 +11349,42 @@
         <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="C45" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="C46" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="C47" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="C48" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -10550,10 +11408,10 @@
     </row>
     <row r="51" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C51" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="116" x14ac:dyDescent="0.35">
@@ -10577,13 +11435,13 @@
         <v>365</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C55" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="4"/>
@@ -10604,7 +11462,7 @@
         <v>197</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>112</v>
@@ -10639,7 +11497,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="10"/>
@@ -10649,34 +11507,34 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C65" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C66" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C67" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -10686,7 +11544,7 @@
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="C69" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -10699,7 +11557,7 @@
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="10"/>
@@ -10707,44 +11565,44 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D72" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="C73" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C74" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C75" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="C76" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="10"/>
@@ -10755,18 +11613,18 @@
         <v>240</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="C79" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.35">
@@ -10971,10 +11829,15 @@
     </row>
     <row r="103" spans="3:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="D103" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>422</v>
+    </row>
+    <row r="105" spans="3:6" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="D105" s="1" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -11016,7 +11879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C923FF5-3A07-4851-BC22-17D88F32C478}">
   <dimension ref="B4:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -11258,7 +12121,7 @@
         <v>150</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>151</v>
@@ -11373,47 +12236,47 @@
     </row>
     <row r="48" spans="2:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="C48" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -11434,10 +12297,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC22A2-908C-401F-88BA-7F1C92BAC01B}">
-  <dimension ref="C5:E52"/>
+  <dimension ref="C5:E54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11710,10 +12573,10 @@
     </row>
     <row r="41" spans="3:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="C41" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -11805,6 +12668,14 @@
     <row r="52" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D52" s="1" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C54" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -11838,7 +12709,7 @@
   <sheetData>
     <row r="4" spans="4:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -11850,7 +12721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:G21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12017,8 +12888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6699FF9F-8B0A-459B-9FAD-26AB4CF94F7D}">
   <dimension ref="D6:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12029,176 +12900,176 @@
   <sheetData>
     <row r="6" spans="4:5" ht="116" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="174" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" spans="4:5" ht="87" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -12211,7 +13082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE1FB51-1192-4233-9E82-0193DE982399}">
   <dimension ref="B4:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
